--- a/BenchMarkResults/Shos.Collections.BenchMarks.BechmarkTest-report.202007311227.xlsx
+++ b/BenchMarkResults/Shos.Collections.BenchMarks.BechmarkTest-report.202007311227.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Source\GitHub\Repos\Shos.Collections\Shos.Collections\BenchMarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0DFD88FB-29AC-4C32-8CAA-F5F7D8E498A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734F625-0D1C-4E45-BA2F-396EC04ACCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shos.Collections.BenchMarks.Bec" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -707,17 +707,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -765,6 +765,21 @@
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -825,21 +840,6 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="BIZ UDPゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -855,12 +855,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A3:C45" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A3:C45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A3:C45" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C45">
+    <sortCondition ref="A4:A45"/>
+    <sortCondition ref="C4:C45"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Method" dataDxfId="4"/>
-    <tableColumn id="3" name="列1" dataDxfId="0"/>
-    <tableColumn id="2" name="Mean (μs)" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Method" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mean (μs)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1162,11 +1166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
@@ -1180,11 +1184,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1199,68 +1203,68 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>470.5</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>679.2</v>
+        <v>737.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>448.1</v>
+        <v>1224.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>443.6</v>
+        <v>1443.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>666.8</v>
+        <v>5940.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>785.6</v>
+        <v>6545.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1268,10 +1272,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>4336.5</v>
+        <v>1220.9000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1279,10 +1283,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>12906623.199999999</v>
+        <v>1267.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1290,10 +1294,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>12101104.1</v>
+        <v>4336.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1301,10 +1305,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>1220.9000000000001</v>
+        <v>7204.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1312,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>1267.5</v>
+        <v>12101104.1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1323,340 +1327,340 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>7204.6</v>
+        <v>12906623.199999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>5940.6</v>
+        <v>3450246.9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>737.1</v>
+        <v>4027077.7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>653</v>
+        <v>4193357.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>1224.5</v>
+        <v>4299117.4000000004</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>1443.4</v>
+        <v>5734483</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>6545.4</v>
+        <v>10260969.1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>825.3</v>
+        <v>4362102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>2961582.2</v>
+        <v>5072646.2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>678.5</v>
+        <v>5385217.7999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>674.5</v>
+        <v>8583160.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2">
-        <v>580.5</v>
+        <v>10781023.6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>809.5</v>
+        <v>12286868.800000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>767.1</v>
+        <v>443.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
-        <v>5963350.5</v>
+        <v>448.1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>6064610.2999999998</v>
+        <v>470.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2">
-        <v>628.6</v>
+        <v>666.8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>603.6</v>
+        <v>679.2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>1067.5999999999999</v>
+        <v>785.6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
-        <v>5734483</v>
+        <v>580.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
-        <v>3450246.9</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="2">
-        <v>4193357.4</v>
+        <v>678.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2">
-        <v>4027077.7</v>
+        <v>809.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" s="2">
-        <v>4299117.4000000004</v>
+        <v>825.3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>10260969.1</v>
+        <v>2961582.2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
-        <v>5072646.2</v>
+        <v>603.6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
-        <v>12286868.800000001</v>
+        <v>628.6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2">
-        <v>8583160.5</v>
+        <v>767.1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2">
-        <v>4362102</v>
+        <v>1067.5999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>5385217.7999999998</v>
+        <v>5963350.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>10781023.6</v>
+        <v>6064610.2999999998</v>
       </c>
     </row>
   </sheetData>
